--- a/natmiOut/YoungD0/LR-pairs_lrc2p/Efnb1-Ephb2.xlsx
+++ b/natmiOut/YoungD0/LR-pairs_lrc2p/Efnb1-Ephb2.xlsx
@@ -528,52 +528,52 @@
         <v>21</v>
       </c>
       <c r="E2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F2">
         <v>1</v>
       </c>
       <c r="G2">
-        <v>6.00688127758966</v>
+        <v>10.31211433333333</v>
       </c>
       <c r="H2">
-        <v>6.00688127758966</v>
+        <v>30.936343</v>
       </c>
       <c r="I2">
-        <v>0.5050194919253074</v>
+        <v>0.633340936097251</v>
       </c>
       <c r="J2">
-        <v>0.5050194919253074</v>
+        <v>0.633340936097251</v>
       </c>
       <c r="K2">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L2">
         <v>1</v>
       </c>
       <c r="M2">
-        <v>6.34034842799346</v>
+        <v>6.346253666666667</v>
       </c>
       <c r="N2">
-        <v>6.34034842799346</v>
+        <v>19.038761</v>
       </c>
       <c r="O2">
-        <v>0.9502214088217007</v>
+        <v>0.9446330608455225</v>
       </c>
       <c r="P2">
-        <v>0.9502214088217007</v>
+        <v>0.9446330608455226</v>
       </c>
       <c r="Q2">
-        <v>38.08572026550895</v>
+        <v>65.44329339900256</v>
       </c>
       <c r="R2">
-        <v>38.08572026550895</v>
+        <v>588.9896405910231</v>
       </c>
       <c r="S2">
-        <v>0.4798803330996851</v>
+        <v>0.5982747870243146</v>
       </c>
       <c r="T2">
-        <v>0.4798803330996851</v>
+        <v>0.5982747870243147</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,52 +590,52 @@
         <v>22</v>
       </c>
       <c r="E3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F3">
         <v>1</v>
       </c>
       <c r="G3">
-        <v>6.00688127758966</v>
+        <v>10.31211433333333</v>
       </c>
       <c r="H3">
-        <v>6.00688127758966</v>
+        <v>30.936343</v>
       </c>
       <c r="I3">
-        <v>0.5050194919253074</v>
+        <v>0.633340936097251</v>
       </c>
       <c r="J3">
-        <v>0.5050194919253074</v>
+        <v>0.633340936097251</v>
       </c>
       <c r="K3">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L3">
         <v>1</v>
       </c>
       <c r="M3">
-        <v>0.332147444158755</v>
+        <v>0.3719673333333333</v>
       </c>
       <c r="N3">
-        <v>0.332147444158755</v>
+        <v>1.115902</v>
       </c>
       <c r="O3">
-        <v>0.04977859117829934</v>
+        <v>0.05536693915447755</v>
       </c>
       <c r="P3">
-        <v>0.04977859117829934</v>
+        <v>0.05536693915447755</v>
       </c>
       <c r="Q3">
-        <v>1.995170263716483</v>
+        <v>3.835769669598444</v>
       </c>
       <c r="R3">
-        <v>1.995170263716483</v>
+        <v>34.521927026386</v>
       </c>
       <c r="S3">
-        <v>0.02513915882562232</v>
+        <v>0.03506614907293635</v>
       </c>
       <c r="T3">
-        <v>0.02513915882562232</v>
+        <v>0.03506614907293635</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,52 +652,52 @@
         <v>21</v>
       </c>
       <c r="E4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F4">
         <v>1</v>
       </c>
       <c r="G4">
-        <v>4.10249084289452</v>
+        <v>4.103438</v>
       </c>
       <c r="H4">
-        <v>4.10249084289452</v>
+        <v>12.310314</v>
       </c>
       <c r="I4">
-        <v>0.3449107357650605</v>
+        <v>0.2520215719230645</v>
       </c>
       <c r="J4">
-        <v>0.3449107357650605</v>
+        <v>0.2520215719230645</v>
       </c>
       <c r="K4">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L4">
         <v>1</v>
       </c>
       <c r="M4">
-        <v>6.34034842799346</v>
+        <v>6.346253666666667</v>
       </c>
       <c r="N4">
-        <v>6.34034842799346</v>
+        <v>19.038761</v>
       </c>
       <c r="O4">
-        <v>0.9502214088217007</v>
+        <v>0.9446330608455225</v>
       </c>
       <c r="P4">
-        <v>0.9502214088217007</v>
+        <v>0.9446330608455226</v>
       </c>
       <c r="Q4">
-        <v>26.01122136660383</v>
+        <v>26.04145845343933</v>
       </c>
       <c r="R4">
-        <v>26.01122136660383</v>
+        <v>234.373126080954</v>
       </c>
       <c r="S4">
-        <v>0.3277415652564052</v>
+        <v>0.2380679088847844</v>
       </c>
       <c r="T4">
-        <v>0.3277415652564052</v>
+        <v>0.2380679088847844</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -714,52 +714,52 @@
         <v>22</v>
       </c>
       <c r="E5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F5">
         <v>1</v>
       </c>
       <c r="G5">
-        <v>4.10249084289452</v>
+        <v>4.103438</v>
       </c>
       <c r="H5">
-        <v>4.10249084289452</v>
+        <v>12.310314</v>
       </c>
       <c r="I5">
-        <v>0.3449107357650605</v>
+        <v>0.2520215719230645</v>
       </c>
       <c r="J5">
-        <v>0.3449107357650605</v>
+        <v>0.2520215719230645</v>
       </c>
       <c r="K5">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L5">
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.332147444158755</v>
+        <v>0.3719673333333333</v>
       </c>
       <c r="N5">
-        <v>0.332147444158755</v>
+        <v>1.115902</v>
       </c>
       <c r="O5">
-        <v>0.04977859117829934</v>
+        <v>0.05536693915447755</v>
       </c>
       <c r="P5">
-        <v>0.04977859117829934</v>
+        <v>0.05536693915447755</v>
       </c>
       <c r="Q5">
-        <v>1.362631848152111</v>
+        <v>1.526344890358666</v>
       </c>
       <c r="R5">
-        <v>1.362631848152111</v>
+        <v>13.737104013228</v>
       </c>
       <c r="S5">
-        <v>0.01716917050865538</v>
+        <v>0.0139536630382801</v>
       </c>
       <c r="T5">
-        <v>0.01716917050865538</v>
+        <v>0.0139536630382801</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -776,52 +776,52 @@
         <v>21</v>
       </c>
       <c r="E6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F6">
         <v>1</v>
       </c>
       <c r="G6">
-        <v>1.78498319378175</v>
+        <v>1.866538</v>
       </c>
       <c r="H6">
-        <v>1.78498319378175</v>
+        <v>5.599614</v>
       </c>
       <c r="I6">
-        <v>0.150069772309632</v>
+        <v>0.1146374919796846</v>
       </c>
       <c r="J6">
-        <v>0.150069772309632</v>
+        <v>0.1146374919796846</v>
       </c>
       <c r="K6">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L6">
         <v>1</v>
       </c>
       <c r="M6">
-        <v>6.34034842799346</v>
+        <v>6.346253666666667</v>
       </c>
       <c r="N6">
-        <v>6.34034842799346</v>
+        <v>19.038761</v>
       </c>
       <c r="O6">
-        <v>0.9502214088217007</v>
+        <v>0.9446330608455225</v>
       </c>
       <c r="P6">
-        <v>0.9502214088217007</v>
+        <v>0.9446330608455226</v>
       </c>
       <c r="Q6">
-        <v>11.31741538668886</v>
+        <v>11.84552362647267</v>
       </c>
       <c r="R6">
-        <v>11.31741538668886</v>
+        <v>106.609712638254</v>
       </c>
       <c r="S6">
-        <v>0.1425995104656104</v>
+        <v>0.1082903649364235</v>
       </c>
       <c r="T6">
-        <v>0.1425995104656104</v>
+        <v>0.1082903649364235</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -838,52 +838,52 @@
         <v>22</v>
       </c>
       <c r="E7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="F7">
         <v>1</v>
       </c>
       <c r="G7">
-        <v>1.78498319378175</v>
+        <v>1.866538</v>
       </c>
       <c r="H7">
-        <v>1.78498319378175</v>
+        <v>5.599614</v>
       </c>
       <c r="I7">
-        <v>0.150069772309632</v>
+        <v>0.1146374919796846</v>
       </c>
       <c r="J7">
-        <v>0.150069772309632</v>
+        <v>0.1146374919796846</v>
       </c>
       <c r="K7">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="L7">
         <v>1</v>
       </c>
       <c r="M7">
-        <v>0.332147444158755</v>
+        <v>0.3719673333333333</v>
       </c>
       <c r="N7">
-        <v>0.332147444158755</v>
+        <v>1.115902</v>
       </c>
       <c r="O7">
-        <v>0.04977859117829934</v>
+        <v>0.05536693915447755</v>
       </c>
       <c r="P7">
-        <v>0.04977859117829934</v>
+        <v>0.05536693915447755</v>
       </c>
       <c r="Q7">
-        <v>0.5928776056809399</v>
+        <v>0.6942911624253333</v>
       </c>
       <c r="R7">
-        <v>0.5928776056809399</v>
+        <v>6.248620461828</v>
       </c>
       <c r="S7">
-        <v>0.007470261844021641</v>
+        <v>0.006347127043261105</v>
       </c>
       <c r="T7">
-        <v>0.007470261844021641</v>
+        <v>0.006347127043261104</v>
       </c>
     </row>
   </sheetData>
